--- a/交流管理/项目周报/李会月周报.xlsx
+++ b/交流管理/项目周报/李会月周报.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
   <si>
     <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,30 @@
   </si>
   <si>
     <t>日常环境下安装jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/10/27周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署测试企业通知接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助文光设计sso白名单登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理熟悉uc代码，优化整理自动化部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试钉钉上传文件接口，熟悉钉钉api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画uc 相关uml图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +517,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1896,15 +1921,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.375" customWidth="1"/>
@@ -2080,6 +2106,66 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交流管理/项目周报/李会月周报.xlsx
+++ b/交流管理/项目周报/李会月周报.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="108">
   <si>
     <t>完成率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,22 @@
   </si>
   <si>
     <t>画uc 相关uml图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善uc相关时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心2.0架构学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行用户中心2.0架构，熟悉uc2.0业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷2.0需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2166,6 +2182,43 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
